--- a/Code/Results/Cases/Case_9_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010275923858226</v>
+        <v>1.009800025599465</v>
       </c>
       <c r="D2">
-        <v>1.027967184178469</v>
+        <v>1.026983139646579</v>
       </c>
       <c r="E2">
-        <v>1.015178776859846</v>
+        <v>1.014802665853013</v>
       </c>
       <c r="F2">
-        <v>1.021073803340361</v>
+        <v>1.020867645862885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046064804270697</v>
+        <v>1.045686242936288</v>
       </c>
       <c r="J2">
-        <v>1.032153568465544</v>
+        <v>1.031691519039903</v>
       </c>
       <c r="K2">
-        <v>1.039050170738195</v>
+        <v>1.038078932441068</v>
       </c>
       <c r="L2">
-        <v>1.026430621105467</v>
+        <v>1.026059557199982</v>
       </c>
       <c r="M2">
-        <v>1.032247150690024</v>
+        <v>1.032043719169362</v>
       </c>
       <c r="N2">
-        <v>1.014208270224924</v>
+        <v>1.015330829333813</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.034093818293564</v>
+        <v>1.033932814418425</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038682127833384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038004152018454</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022073375441865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014369433764781</v>
+        <v>1.013664763336765</v>
       </c>
       <c r="D3">
-        <v>1.030763074853727</v>
+        <v>1.02950722882061</v>
       </c>
       <c r="E3">
-        <v>1.018442669611416</v>
+        <v>1.017862798570497</v>
       </c>
       <c r="F3">
-        <v>1.024246603717327</v>
+        <v>1.023941761945259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047139129256543</v>
+        <v>1.04661736385632</v>
       </c>
       <c r="J3">
-        <v>1.034475893639987</v>
+        <v>1.03378972007088</v>
       </c>
       <c r="K3">
-        <v>1.04101690421605</v>
+        <v>1.039775982312871</v>
       </c>
       <c r="L3">
-        <v>1.028844888374756</v>
+        <v>1.028272111466556</v>
       </c>
       <c r="M3">
-        <v>1.034578366684022</v>
+        <v>1.034277200809153</v>
       </c>
       <c r="N3">
-        <v>1.015025830106234</v>
+        <v>1.015913877339929</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.035938833628581</v>
+        <v>1.035700479470214</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040070116196346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039201171789062</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022437428270263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016966324467681</v>
+        <v>1.016118527720587</v>
       </c>
       <c r="D4">
-        <v>1.0325404276109</v>
+        <v>1.031113526742868</v>
       </c>
       <c r="E4">
-        <v>1.020518622720209</v>
+        <v>1.019811160216209</v>
       </c>
       <c r="F4">
-        <v>1.02626739013677</v>
+        <v>1.025900952468938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047812080823748</v>
+        <v>1.04720021691078</v>
       </c>
       <c r="J4">
-        <v>1.035945766566839</v>
+        <v>1.035118717535059</v>
       </c>
       <c r="K4">
-        <v>1.04226136198161</v>
+        <v>1.040850399010326</v>
       </c>
       <c r="L4">
-        <v>1.030375556112471</v>
+        <v>1.029676220238439</v>
       </c>
       <c r="M4">
-        <v>1.036058799507105</v>
+        <v>1.03569651145535</v>
       </c>
       <c r="N4">
-        <v>1.015542997097393</v>
+        <v>1.016283108714398</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037110503457308</v>
+        <v>1.03682377534061</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040950948951754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039961852290442</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02266540860833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018050564406598</v>
+        <v>1.017143287758569</v>
       </c>
       <c r="D5">
-        <v>1.033285798264344</v>
+        <v>1.031787698379459</v>
       </c>
       <c r="E5">
-        <v>1.021387231881105</v>
+        <v>1.020626697946478</v>
       </c>
       <c r="F5">
-        <v>1.027111408365423</v>
+        <v>1.026719405050896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048092925230908</v>
+        <v>1.047443503783643</v>
       </c>
       <c r="J5">
-        <v>1.036560476161767</v>
+        <v>1.03567473938923</v>
       </c>
       <c r="K5">
-        <v>1.042783470766063</v>
+        <v>1.041301660032437</v>
       </c>
       <c r="L5">
-        <v>1.031015900743987</v>
+        <v>1.030263867662762</v>
       </c>
       <c r="M5">
-        <v>1.036676591825536</v>
+        <v>1.03628890837113</v>
       </c>
       <c r="N5">
-        <v>1.015759861102965</v>
+        <v>1.016438044195777</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.037599446801261</v>
+        <v>1.037292620033248</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041327281072172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04028880149369</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022761203004461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018237442237775</v>
+        <v>1.017319719579092</v>
       </c>
       <c r="D6">
-        <v>1.033417301814528</v>
+        <v>1.031906826700691</v>
       </c>
       <c r="E6">
-        <v>1.021537762007468</v>
+        <v>1.020767874106533</v>
       </c>
       <c r="F6">
-        <v>1.027255076973181</v>
+        <v>1.026858584503202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048143613111286</v>
+        <v>1.047487587262396</v>
       </c>
       <c r="J6">
-        <v>1.036668639433313</v>
+        <v>1.035772592507162</v>
       </c>
       <c r="K6">
-        <v>1.042877462121142</v>
+        <v>1.04138333564462</v>
       </c>
       <c r="L6">
-        <v>1.031128105440561</v>
+        <v>1.030366783037755</v>
       </c>
       <c r="M6">
-        <v>1.036782305040212</v>
+        <v>1.036390161724023</v>
       </c>
       <c r="N6">
-        <v>1.015798814850534</v>
+        <v>1.016465889765372</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.037683112056367</v>
+        <v>1.037372755627393</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041402469033034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040356152138797</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022779296280982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016995771257731</v>
+        <v>1.016155268641138</v>
       </c>
       <c r="D7">
-        <v>1.032568664265001</v>
+        <v>1.03114679310951</v>
       </c>
       <c r="E7">
-        <v>1.020544233243146</v>
+        <v>1.01984350969231</v>
       </c>
       <c r="F7">
-        <v>1.026285142475444</v>
+        <v>1.025921859309934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04782620107397</v>
+        <v>1.04721789317801</v>
       </c>
       <c r="J7">
-        <v>1.035968558094501</v>
+        <v>1.035148615391051</v>
       </c>
       <c r="K7">
-        <v>1.042286408777271</v>
+        <v>1.04088041288115</v>
       </c>
       <c r="L7">
-        <v>1.030397952298376</v>
+        <v>1.029705274711679</v>
       </c>
       <c r="M7">
-        <v>1.036073452353482</v>
+        <v>1.035714281517681</v>
       </c>
       <c r="N7">
-        <v>1.015553221325667</v>
+        <v>1.016319362742876</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037122100257547</v>
+        <v>1.036837839225569</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04098873807316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040005156886237</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022674842769086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011689220450015</v>
+        <v>1.011162553038809</v>
       </c>
       <c r="D8">
-        <v>1.028941640585762</v>
+        <v>1.027885697914396</v>
       </c>
       <c r="E8">
-        <v>1.016307185552701</v>
+        <v>1.01588689283802</v>
       </c>
       <c r="F8">
-        <v>1.022161063319303</v>
+        <v>1.021933019368227</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046445605362451</v>
+        <v>1.046032386409313</v>
       </c>
       <c r="J8">
-        <v>1.032963692859973</v>
+        <v>1.032451835160386</v>
       </c>
       <c r="K8">
-        <v>1.039743345935112</v>
+        <v>1.038700736955687</v>
       </c>
       <c r="L8">
-        <v>1.027270704961411</v>
+        <v>1.026855881696033</v>
       </c>
       <c r="M8">
-        <v>1.033048988301601</v>
+        <v>1.032823868942901</v>
       </c>
       <c r="N8">
-        <v>1.014496417752011</v>
+        <v>1.015624471386524</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.034728424422347</v>
+        <v>1.034550256079489</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039195154753627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038468982722313</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022212876391451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001898064686509</v>
+        <v>1.001936712673984</v>
       </c>
       <c r="D9">
-        <v>1.022267677994585</v>
+        <v>1.021874537062556</v>
       </c>
       <c r="E9">
-        <v>1.00853035417528</v>
+        <v>1.008613030998818</v>
       </c>
       <c r="F9">
-        <v>1.014625443426344</v>
+        <v>1.014642232282115</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043821002587589</v>
+        <v>1.04375795125103</v>
       </c>
       <c r="J9">
-        <v>1.027383974979447</v>
+        <v>1.027421265502586</v>
       </c>
       <c r="K9">
-        <v>1.03500952074212</v>
+        <v>1.034622411528002</v>
       </c>
       <c r="L9">
-        <v>1.021486531982363</v>
+        <v>1.021567896481347</v>
       </c>
       <c r="M9">
-        <v>1.027485607359683</v>
+        <v>1.027502133783465</v>
       </c>
       <c r="N9">
-        <v>1.012528185511702</v>
+        <v>1.014234534914049</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.030325331980552</v>
+        <v>1.030338411724899</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035844842038735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035581883368516</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021322124419412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9951990705224104</v>
+        <v>0.9956744463110577</v>
       </c>
       <c r="D10">
-        <v>1.017741233162144</v>
+        <v>1.017837765986418</v>
       </c>
       <c r="E10">
-        <v>1.003257697911202</v>
+        <v>1.003728901820872</v>
       </c>
       <c r="F10">
-        <v>1.009747453658178</v>
+        <v>1.009954213056057</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042015812558355</v>
+        <v>1.042215523824775</v>
       </c>
       <c r="J10">
-        <v>1.023604471212064</v>
+        <v>1.024060740192248</v>
       </c>
       <c r="K10">
-        <v>1.031797385858203</v>
+        <v>1.031892253659381</v>
       </c>
       <c r="L10">
-        <v>1.017568381678334</v>
+        <v>1.018031154608692</v>
       </c>
       <c r="M10">
-        <v>1.023942917179343</v>
+        <v>1.024146037285216</v>
       </c>
       <c r="N10">
-        <v>1.011205119770775</v>
+        <v>1.013427284093428</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027573612372428</v>
+        <v>1.027734360960743</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033590491700149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033670008032648</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02072626679163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9932881961300142</v>
+        <v>0.9939066426062263</v>
       </c>
       <c r="D11">
-        <v>1.01657692403124</v>
+        <v>1.016818782496987</v>
       </c>
       <c r="E11">
-        <v>1.001890037147626</v>
+        <v>1.002484788118868</v>
       </c>
       <c r="F11">
-        <v>1.010211983101391</v>
+        <v>1.010478995032629</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041748192795258</v>
+        <v>1.042024240297078</v>
       </c>
       <c r="J11">
-        <v>1.022942884424775</v>
+        <v>1.023535127940553</v>
       </c>
       <c r="K11">
-        <v>1.031192851478396</v>
+        <v>1.031430341546604</v>
       </c>
       <c r="L11">
-        <v>1.016776397940608</v>
+        <v>1.01735999661661</v>
       </c>
       <c r="M11">
-        <v>1.024943852183779</v>
+        <v>1.025205962084029</v>
       </c>
       <c r="N11">
-        <v>1.011066170227152</v>
+        <v>1.013578876939382</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.02880688164711</v>
+        <v>1.029014207587498</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033195981864298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033379545330867</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020697599764096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9929342301464228</v>
+        <v>0.993566804501241</v>
       </c>
       <c r="D12">
-        <v>1.016423720307454</v>
+        <v>1.016677852150527</v>
       </c>
       <c r="E12">
-        <v>1.00170999124027</v>
+        <v>1.002312798402241</v>
       </c>
       <c r="F12">
-        <v>1.011258991234125</v>
+        <v>1.011530618707023</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041832885021012</v>
+        <v>1.042111109183417</v>
       </c>
       <c r="J12">
-        <v>1.023040665883706</v>
+        <v>1.023645946419104</v>
       </c>
       <c r="K12">
-        <v>1.031242889959273</v>
+        <v>1.031492357340305</v>
       </c>
       <c r="L12">
-        <v>1.016804503681028</v>
+        <v>1.017395822579938</v>
       </c>
       <c r="M12">
-        <v>1.026173619572843</v>
+        <v>1.026440194928224</v>
       </c>
       <c r="N12">
-        <v>1.011174219793082</v>
+        <v>1.013762204764086</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030108965558298</v>
+        <v>1.030319750928925</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033231360840904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033423391750401</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02076214395832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9937680072949251</v>
+        <v>0.9943014868274841</v>
       </c>
       <c r="D13">
-        <v>1.017055313977423</v>
+        <v>1.01720841529489</v>
       </c>
       <c r="E13">
-        <v>1.002442434305285</v>
+        <v>1.002951499996765</v>
       </c>
       <c r="F13">
-        <v>1.012850867423708</v>
+        <v>1.013078940639306</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042208203929277</v>
+        <v>1.042424049447109</v>
       </c>
       <c r="J13">
-        <v>1.023744882942827</v>
+        <v>1.024255480269458</v>
       </c>
       <c r="K13">
-        <v>1.03181993434422</v>
+        <v>1.031970239127577</v>
       </c>
       <c r="L13">
-        <v>1.017479113062612</v>
+        <v>1.017978526879447</v>
       </c>
       <c r="M13">
-        <v>1.027692716481612</v>
+        <v>1.027916578939965</v>
       </c>
       <c r="N13">
-        <v>1.011487842029437</v>
+        <v>1.013950626912751</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031588759432967</v>
+        <v>1.031765726012219</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033636854113959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033758524470401</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020907096998242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9948782746401164</v>
+        <v>0.9952935232480379</v>
       </c>
       <c r="D14">
-        <v>1.017845995808623</v>
+        <v>1.017879433872719</v>
       </c>
       <c r="E14">
-        <v>1.003358707833705</v>
+        <v>1.003758566874719</v>
       </c>
       <c r="F14">
-        <v>1.014184498898071</v>
+        <v>1.014361581787626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042597680575001</v>
+        <v>1.042742282935552</v>
       </c>
       <c r="J14">
-        <v>1.024501647638268</v>
+        <v>1.024899352385102</v>
       </c>
       <c r="K14">
-        <v>1.032455569848007</v>
+        <v>1.03248840496966</v>
       </c>
       <c r="L14">
-        <v>1.018234446707803</v>
+        <v>1.018626824833015</v>
       </c>
       <c r="M14">
-        <v>1.028860408665671</v>
+        <v>1.02903426898559</v>
       </c>
       <c r="N14">
-        <v>1.011796850759107</v>
+        <v>1.014084110613778</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032686108800568</v>
+        <v>1.032823529279148</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034087697998854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034126443726251</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02104410645528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9954225981577143</v>
+        <v>0.9957843796095177</v>
       </c>
       <c r="D15">
-        <v>1.018223655714215</v>
+        <v>1.018202892843762</v>
       </c>
       <c r="E15">
-        <v>1.003794885501253</v>
+        <v>1.004146153672458</v>
       </c>
       <c r="F15">
-        <v>1.014677859418139</v>
+        <v>1.014832060221476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0427647260382</v>
+        <v>1.042877932936175</v>
       </c>
       <c r="J15">
-        <v>1.024834800250731</v>
+        <v>1.025181433575939</v>
       </c>
       <c r="K15">
-        <v>1.032739827814232</v>
+        <v>1.032719436442766</v>
       </c>
       <c r="L15">
-        <v>1.018574057153804</v>
+        <v>1.018918805541818</v>
       </c>
       <c r="M15">
-        <v>1.029257761105352</v>
+        <v>1.029409178373309</v>
       </c>
       <c r="N15">
-        <v>1.011923498862074</v>
+        <v>1.014125915882894</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033037896374968</v>
+        <v>1.033157574542853</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034294557788729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034296237328376</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021099533940983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99807753302161</v>
+        <v>0.9982119521920478</v>
       </c>
       <c r="D16">
-        <v>1.020003007145763</v>
+        <v>1.019747600807032</v>
       </c>
       <c r="E16">
-        <v>1.005862344689736</v>
+        <v>1.006011277394813</v>
       </c>
       <c r="F16">
-        <v>1.016472153561278</v>
+        <v>1.016529461176719</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043460361582475</v>
+        <v>1.043443428602149</v>
       </c>
       <c r="J16">
-        <v>1.026290603768382</v>
+        <v>1.026419678837357</v>
       </c>
       <c r="K16">
-        <v>1.033984609503757</v>
+        <v>1.033733572410743</v>
       </c>
       <c r="L16">
-        <v>1.020090184171616</v>
+        <v>1.020236476657222</v>
       </c>
       <c r="M16">
-        <v>1.030514410093081</v>
+        <v>1.030570728908718</v>
       </c>
       <c r="N16">
-        <v>1.012420288856024</v>
+        <v>1.014248616989172</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033992236603345</v>
+        <v>1.034036751521741</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035177833141423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035016733202349</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021310883815526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9995436671636865</v>
+        <v>0.999575253870202</v>
       </c>
       <c r="D17">
-        <v>1.02096308029314</v>
+        <v>1.020597346360063</v>
       </c>
       <c r="E17">
-        <v>1.006979399351507</v>
+        <v>1.007038786907577</v>
       </c>
       <c r="F17">
-        <v>1.017156857968653</v>
+        <v>1.017170344582395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043792581354047</v>
+        <v>1.043717598223969</v>
       </c>
       <c r="J17">
-        <v>1.027019392871255</v>
+        <v>1.027049764236366</v>
       </c>
       <c r="K17">
-        <v>1.034613270202674</v>
+        <v>1.03425361706374</v>
       </c>
       <c r="L17">
-        <v>1.020866151155732</v>
+        <v>1.020924516091371</v>
       </c>
       <c r="M17">
-        <v>1.03087060713797</v>
+        <v>1.030883867459183</v>
       </c>
       <c r="N17">
-        <v>1.012642351035884</v>
+        <v>1.014304745655139</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034144065571773</v>
+        <v>1.034154547705481</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035624909890689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035387260454533</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02140448028797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000073672194892</v>
+        <v>1.000090355388529</v>
       </c>
       <c r="D18">
-        <v>1.02126155393249</v>
+        <v>1.020876337239348</v>
       </c>
       <c r="E18">
-        <v>1.007333633145603</v>
+        <v>1.007383295568033</v>
       </c>
       <c r="F18">
-        <v>1.016778889532061</v>
+        <v>1.016786035659843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043814921140652</v>
+        <v>1.04373411304218</v>
       </c>
       <c r="J18">
-        <v>1.027133896572002</v>
+        <v>1.027149949640322</v>
       </c>
       <c r="K18">
-        <v>1.034723107112105</v>
+        <v>1.03434419168224</v>
       </c>
       <c r="L18">
-        <v>1.021026967948064</v>
+        <v>1.021075789219318</v>
       </c>
       <c r="M18">
-        <v>1.030314149133148</v>
+        <v>1.030321177094758</v>
       </c>
       <c r="N18">
-        <v>1.012625901102844</v>
+        <v>1.014252702126108</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033464969142959</v>
+        <v>1.033470525836785</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035690922598714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035438520026468</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021389184942706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9997446981498413</v>
+        <v>0.9998174613564478</v>
       </c>
       <c r="D19">
-        <v>1.020965084031172</v>
+        <v>1.020636671737662</v>
       </c>
       <c r="E19">
-        <v>1.006989610282933</v>
+        <v>1.007093566326885</v>
       </c>
       <c r="F19">
-        <v>1.015339544948945</v>
+        <v>1.015370870388118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043560999490522</v>
+        <v>1.043516976679052</v>
       </c>
       <c r="J19">
-        <v>1.026682670287635</v>
+        <v>1.026752698978436</v>
       </c>
       <c r="K19">
-        <v>1.034368828854755</v>
+        <v>1.034045763572902</v>
       </c>
       <c r="L19">
-        <v>1.02062487279363</v>
+        <v>1.02072707610657</v>
       </c>
       <c r="M19">
-        <v>1.028835496269869</v>
+        <v>1.028866304623352</v>
       </c>
       <c r="N19">
-        <v>1.012398626161191</v>
+        <v>1.014084595160273</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031967633644617</v>
+        <v>1.031992000506922</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035446838421801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.0352345508116</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02127841481507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9969813901565814</v>
+        <v>0.9973100647888038</v>
       </c>
       <c r="D20">
-        <v>1.018964502823264</v>
+        <v>1.018907397251746</v>
       </c>
       <c r="E20">
-        <v>1.004664985189746</v>
+        <v>1.005004137640325</v>
       </c>
       <c r="F20">
-        <v>1.011040628237023</v>
+        <v>1.011183530548619</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042517118149812</v>
+        <v>1.042630479031248</v>
       </c>
       <c r="J20">
-        <v>1.024629172125992</v>
+        <v>1.024945074185783</v>
       </c>
       <c r="K20">
-        <v>1.032681884344741</v>
+        <v>1.032625735374407</v>
       </c>
       <c r="L20">
-        <v>1.018626299454064</v>
+        <v>1.018959562358955</v>
       </c>
       <c r="M20">
-        <v>1.024892080406244</v>
+        <v>1.025032540799157</v>
       </c>
       <c r="N20">
-        <v>1.011571078726863</v>
+        <v>1.013575285325235</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028314095796695</v>
+        <v>1.02842525704124</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034258037128018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034234867373746</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020890482029478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9917329490591846</v>
+        <v>0.9925526238524572</v>
       </c>
       <c r="D21">
-        <v>1.015401220671006</v>
+        <v>1.015845092315002</v>
       </c>
       <c r="E21">
-        <v>1.000521214997673</v>
+        <v>1.001304621144323</v>
       </c>
       <c r="F21">
-        <v>1.006872466718173</v>
+        <v>1.00722972224405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041037549311711</v>
+        <v>1.041437255962767</v>
       </c>
       <c r="J21">
-        <v>1.021580425289025</v>
+        <v>1.02236505085038</v>
       </c>
       <c r="K21">
-        <v>1.030096571008515</v>
+        <v>1.030532366634623</v>
       </c>
       <c r="L21">
-        <v>1.0154927195251</v>
+        <v>1.016261319160513</v>
       </c>
       <c r="M21">
-        <v>1.021724797456347</v>
+        <v>1.022075407740885</v>
       </c>
       <c r="N21">
-        <v>1.010486147599199</v>
+        <v>1.013281838581322</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025765956568535</v>
+        <v>1.026043446872857</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032433361088265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032758351482224</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020430146134889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9884072842984795</v>
+        <v>0.9895399176859158</v>
       </c>
       <c r="D22">
-        <v>1.013148195217958</v>
+        <v>1.013910731271841</v>
       </c>
       <c r="E22">
-        <v>0.9979082511286701</v>
+        <v>0.9989751332362299</v>
       </c>
       <c r="F22">
-        <v>1.004363986834859</v>
+        <v>1.004858168506362</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040099963807937</v>
+        <v>1.040682239989862</v>
       </c>
       <c r="J22">
-        <v>1.019664862746722</v>
+        <v>1.020746179978357</v>
       </c>
       <c r="K22">
-        <v>1.028463607469497</v>
+        <v>1.02921156066256</v>
       </c>
       <c r="L22">
-        <v>1.01352126017487</v>
+        <v>1.014566920314069</v>
       </c>
       <c r="M22">
-        <v>1.019849485193211</v>
+        <v>1.020333994589829</v>
       </c>
       <c r="N22">
-        <v>1.009806523704392</v>
+        <v>1.013096634100515</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024281739858717</v>
+        <v>1.024665205342405</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031265231421912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031809642432476</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02013969482929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9901625499797152</v>
+        <v>0.9911139574121127</v>
       </c>
       <c r="D23">
-        <v>1.014329495081825</v>
+        <v>1.014911037330083</v>
       </c>
       <c r="E23">
-        <v>0.9992842162418588</v>
+        <v>1.000186369416912</v>
       </c>
       <c r="F23">
-        <v>1.005691663513023</v>
+        <v>1.006106540586392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040589614014236</v>
+        <v>1.041066881938368</v>
       </c>
       <c r="J23">
-        <v>1.020670418774626</v>
+        <v>1.021580012171052</v>
       </c>
       <c r="K23">
-        <v>1.029315963381216</v>
+        <v>1.02988667142544</v>
       </c>
       <c r="L23">
-        <v>1.01455672568047</v>
+        <v>1.0154414092817</v>
       </c>
       <c r="M23">
-        <v>1.020840985665006</v>
+        <v>1.021247957206223</v>
       </c>
       <c r="N23">
-        <v>1.010160792165051</v>
+        <v>1.013145252590565</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025066463743274</v>
+        <v>1.02538856145088</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031858216625956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032276364973743</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020284432143435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9969415619112857</v>
+        <v>0.9972779003606794</v>
       </c>
       <c r="D24">
-        <v>1.018915403881224</v>
+        <v>1.018865812503814</v>
       </c>
       <c r="E24">
-        <v>1.004618094202421</v>
+        <v>1.004964760090282</v>
       </c>
       <c r="F24">
-        <v>1.010834070836012</v>
+        <v>1.010980416136755</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042473232279368</v>
+        <v>1.042591725571524</v>
       </c>
       <c r="J24">
-        <v>1.024557854344265</v>
+        <v>1.024881139439783</v>
       </c>
       <c r="K24">
-        <v>1.032618291567132</v>
+        <v>1.032569529947166</v>
       </c>
       <c r="L24">
-        <v>1.018564593402272</v>
+        <v>1.01890524635346</v>
       </c>
       <c r="M24">
-        <v>1.024673562332181</v>
+        <v>1.024817408786811</v>
       </c>
       <c r="N24">
-        <v>1.011534195356044</v>
+        <v>1.013545419019798</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028099751299232</v>
+        <v>1.028213598117747</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034185609242372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034164995191477</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020868735641004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004506005765334</v>
+        <v>1.004378840103262</v>
       </c>
       <c r="D25">
-        <v>1.024053931570384</v>
+        <v>1.023472896216184</v>
       </c>
       <c r="E25">
-        <v>1.010599951071409</v>
+        <v>1.010534588974616</v>
       </c>
       <c r="F25">
-        <v>1.016616475304738</v>
+        <v>1.016561281056314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044537952874037</v>
+        <v>1.044373785077814</v>
       </c>
       <c r="J25">
-        <v>1.028882670632381</v>
+        <v>1.028759732125758</v>
       </c>
       <c r="K25">
-        <v>1.036289973785653</v>
+        <v>1.035717434604499</v>
       </c>
       <c r="L25">
-        <v>1.023035915161784</v>
+        <v>1.02297154087506</v>
       </c>
       <c r="M25">
-        <v>1.028962204079682</v>
+        <v>1.028907831456896</v>
       </c>
       <c r="N25">
-        <v>1.013060965082019</v>
+        <v>1.014576041907795</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03149397510675</v>
+        <v>1.031450942273441</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036778815015454</v>
+        <v>1.036387545094153</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021565817718747</v>
       </c>
     </row>
   </sheetData>
